--- a/HT-1/Monopoly-BAC-13-Lenguaje gráfico.xlsx
+++ b/HT-1/Monopoly-BAC-13-Lenguaje gráfico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0DA76A-276F-423C-8773-EEB10B57FD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E68F46E-0E2E-4124-A79C-42DD8E644E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>El tablero se representa con un espacio vacío como el que se ve en la figura.</t>
   </si>
   <si>
-    <t>Las casillas se representan con un espacio vacío más pequeño al del tablero. Cada casilla puede tener un color correspondiente a un grupo de propiedades</t>
-  </si>
-  <si>
     <t>Jugador</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Figura 1. Modelo de ejemplo de monopolio</t>
+  </si>
+  <si>
+    <t>Las casillas se representan con un espacio vacío más pequeño al del tablero. Cada casilla puede tener un color correspondiente a un barrio</t>
   </si>
 </sst>
 </file>
@@ -224,15 +224,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>25402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3324225</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>3161617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -268,15 +268,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1390650</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1894966</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>552450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -312,15 +312,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>923926</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>53977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1571281</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>701676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -356,15 +356,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1711325</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2374899</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>703728</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -400,15 +400,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1840304</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>587375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -444,15 +444,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>439509</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -488,15 +488,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>524308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -531,15 +531,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>82551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>761075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -575,15 +575,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1397000</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1783002</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>768350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -619,15 +619,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1781176</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2143125</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>779321</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -663,15 +663,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>543478</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -707,15 +707,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1377950</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1836523</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>635000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -751,15 +751,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>705965</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>29628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1093,184 +1093,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="44.33203125" customWidth="1"/>
+    <col min="3" max="4" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="2:11" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="2:11" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="251" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="2:11" ht="251" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="47" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="47" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
